--- a/Maintenace_Mar_2020.xlsx
+++ b/Maintenace_Mar_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="19440" windowHeight="9552" activeTab="3"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="19440" windowHeight="9552" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="114">
   <si>
     <t>Flats</t>
   </si>
@@ -352,6 +352,21 @@
   </si>
   <si>
     <t>muraivasal</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>Sweeper salry</t>
+  </si>
+  <si>
+    <t>Muraivasal</t>
+  </si>
+  <si>
+    <t>mob, cleaning liquid, brrom</t>
+  </si>
+  <si>
+    <t>Electrical work</t>
   </si>
 </sst>
 </file>
@@ -860,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -936,12 +951,16 @@
       <c r="B4" s="8">
         <v>1395</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="6" t="str">
+      <c r="E4" s="36">
+        <v>43864</v>
+      </c>
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="21" customFormat="1">
@@ -1389,7 +1408,7 @@
       </c>
       <c r="F35" s="6">
         <f>COUNT(F1:F33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1405,7 +1424,7 @@
       </c>
       <c r="F36" s="6">
         <f>SUM(F2:F33)</f>
-        <v>0</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1447,7 +1466,7 @@
       </c>
       <c r="F41" s="24">
         <f>F36-SUM(F37:F40)</f>
-        <v>0</v>
+        <v>1395</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -2060,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D36" sqref="A1:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2735,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -53204,79 +53223,367 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="16">
-        <v>43861</v>
-      </c>
-      <c r="C1" s="16">
-        <v>43890</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6"/>
       <c r="E1" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6">
-        <v>4792</v>
-      </c>
-      <c r="C2" s="6">
-        <v>4893</v>
-      </c>
-      <c r="D2" s="6">
-        <f>C2-B2</f>
-        <v>101</v>
-      </c>
-      <c r="E2" s="6">
-        <v>172</v>
-      </c>
+      <c r="A2" s="14">
+        <v>43891</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6">
-        <v>65179</v>
-      </c>
-      <c r="C3" s="6">
-        <v>66651</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3" si="0">C3-B3</f>
-        <v>1472</v>
-      </c>
-      <c r="E3" s="6">
-        <v>8535</v>
-      </c>
+      <c r="A3" s="14">
+        <v>43892</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="24">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14">
+        <v>43892</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="D5" t="s">
+      <c r="A5" s="14">
+        <v>43892</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="24">
+        <v>550</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14">
+        <v>43892</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="24">
+        <v>100</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14">
+        <v>43893</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14">
+        <v>43894</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14">
+        <v>43895</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14">
+        <v>43896</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14">
+        <v>43897</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14">
+        <v>43898</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14">
+        <v>43899</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14">
+        <v>43900</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="14">
+        <v>43901</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14">
+        <v>43902</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14">
+        <v>43903</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14">
+        <v>43904</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14">
+        <v>43905</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14">
+        <v>43906</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14">
+        <v>43907</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14">
+        <v>43908</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14">
+        <v>43909</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14">
+        <v>43910</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14">
+        <v>43911</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14">
+        <v>43912</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="14">
+        <v>43913</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14">
+        <v>43914</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="14">
+        <v>43915</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="14">
+        <v>43916</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="14">
+        <v>43917</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14">
+        <v>43918</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14">
+        <v>43919</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14">
+        <v>43920</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14">
+        <v>43921</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5">
-        <f>SUM(E1:E4)</f>
-        <v>8707</v>
-      </c>
+      <c r="C38" s="6">
+        <f>SUM(C1:C37)</f>
+        <v>5650</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53288,8 +53595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
